--- a/data/n2v/tables/model-1200-1325-20230828-15.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-15.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
